--- a/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
+++ b/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Historias" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Epicas" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Actividades" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Historias!$A$1:$C$28</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Epicas!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>Historias</t>
   </si>
@@ -124,9 +124,15 @@
     <t>Horas reales</t>
   </si>
   <si>
+    <t>Springs</t>
+  </si>
+  <si>
     <t>Diseño de base de datos</t>
   </si>
   <si>
+    <t>Spring 1</t>
+  </si>
+  <si>
     <t>Implementacion de base datos</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>Diseño de interfaz de ficha detallado del sitio turistico</t>
   </si>
   <si>
+    <t>Spring 2</t>
+  </si>
+  <si>
     <t>Implementar API para imagenes y mapas de sitio turistico</t>
   </si>
   <si>
@@ -157,27 +166,36 @@
     <t>Implementacion de interfaz para mostrar mapa</t>
   </si>
   <si>
+    <t>Spring 3</t>
+  </si>
+  <si>
     <t>Integración de mapa y posición en tiempo real</t>
   </si>
   <si>
     <t>Implementación de interfaz para mostrar mapa</t>
   </si>
   <si>
+    <t>Implementar descarga de mapas offline</t>
+  </si>
+  <si>
     <t>Implementar API de navegación asistida (Google Maps)</t>
   </si>
   <si>
+    <t>Spring 4</t>
+  </si>
+  <si>
     <t>Diseño de interfaz de navegación asistida</t>
   </si>
   <si>
     <t>Implementación de narraciones guiadas</t>
   </si>
   <si>
-    <t>Implementar descarga de mapas offline</t>
-  </si>
-  <si>
     <t>Implementar API para acceso offline</t>
   </si>
   <si>
+    <t>Spring 5</t>
+  </si>
+  <si>
     <t>Implementar filtro de sitios por categoría (catálogo)</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t>Implementar API para agenda de eventos turísticos</t>
   </si>
   <si>
+    <t>Spring 6</t>
+  </si>
+  <si>
     <t>Diseño de interfaz de agenda</t>
   </si>
   <si>
@@ -205,15 +226,18 @@
     <t>Implementar compartir información de sitios</t>
   </si>
   <si>
+    <t>Diseño de interfaz de reseñas</t>
+  </si>
+  <si>
     <t>Diseño de interfaz de compartir</t>
   </si>
   <si>
+    <t>Spring 7</t>
+  </si>
+  <si>
     <t>Implementar API de reseñas</t>
   </si>
   <si>
-    <t>Diseño de interfaz de reseñas</t>
-  </si>
-  <si>
     <t>Implementar API para publicar reseñas</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>Implementar registro de usuario</t>
   </si>
   <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
     <t>Diseño de interfaz de registro</t>
   </si>
   <si>
@@ -232,36 +259,45 @@
     <t>Diseño de interfaz de login</t>
   </si>
   <si>
+    <t>Diseño de interfaz notificaciones</t>
+  </si>
+  <si>
     <t>Implementar API perfil de usuario</t>
   </si>
   <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
     <t>Diseño de interfaz perfil de usuario</t>
   </si>
   <si>
     <t>Implementar notificaciones push</t>
   </si>
   <si>
-    <t>Diseño de interfaz notificaciones</t>
+    <t>Diseño de interfaz integración redes sociales</t>
   </si>
   <si>
     <t>Implementar recomendaciones personalizadas</t>
   </si>
   <si>
+    <t>Spring 10</t>
+  </si>
+  <si>
     <t>Diseño de interfaz recomendaciones</t>
   </si>
   <si>
     <t>Implementar login/redes sociales</t>
   </si>
   <si>
-    <t>Diseño de interfaz integración redes sociales</t>
-  </si>
-  <si>
     <t>Implementar API de información práctica de transporte</t>
   </si>
   <si>
     <t>Diseño de interfaz info transporte y servicios</t>
   </si>
   <si>
+    <t>Spring 11</t>
+  </si>
+  <si>
     <t>Implementar API itinerarios</t>
   </si>
   <si>
@@ -271,10 +307,16 @@
     <t>Implementar API de contacto con guías turísticos</t>
   </si>
   <si>
+    <t>Spring 12</t>
+  </si>
+  <si>
     <t>Diseño de interfaz de contacto guías</t>
   </si>
   <si>
     <t>Implementar API para denuncias de contenido</t>
+  </si>
+  <si>
+    <t>Spring 13</t>
   </si>
   <si>
     <t>Diseño de interfaz de denuncias</t>
@@ -343,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -381,11 +423,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -415,6 +487,14 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -978,186 +1058,206 @@
       <c r="D1" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8" t="str">
-        <f>Historias!A2</f>
+        <f>Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="8">
-        <f>C2*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C2*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="str">
-        <f>Historias!A2</f>
+        <f>Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="8">
-        <f>C3*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C3*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="str">
-        <f>Historias!A2</f>
+        <f>Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="8">
-        <f>C4*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C4*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="str">
-        <f>Historias!A2</f>
+        <f>Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="8">
-        <f>C5*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C5*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f>Historias!A3</f>
+        <f>Epicas!A3</f>
         <v>HU2</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="8">
-        <f>C6*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C6*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f>Historias!A3</f>
+        <f>Epicas!A3</f>
         <v>HU2</v>
       </c>
       <c r="C7" s="2">
         <v>0.5</v>
       </c>
       <c r="D7" s="8">
-        <f>C7*Historias!$C$26</f>
+        <f>C7*Epicas!$C$26</f>
         <v>3.2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f>Historias!A4</f>
+        <f>Epicas!A4</f>
         <v>HU3</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="8">
-        <f>C8*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C8*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8" t="str">
-        <f>Historias!A4</f>
+        <f>Epicas!A4</f>
         <v>HU3</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
       </c>
       <c r="D9" s="8">
-        <f>C9*Historias!$C$26</f>
+        <f>C9*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f>Historias!A5</f>
+        <f>Epicas!A5</f>
         <v>HU4</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="8">
-        <f>C10*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C10*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f>Historias!A5</f>
+        <f>Epicas!A5</f>
         <v>HU4</v>
       </c>
       <c r="C11" s="2">
         <v>2.0</v>
       </c>
       <c r="D11" s="8">
-        <f>C11*Historias!$C$26</f>
+        <f>C11*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
+      <c r="E11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f>Historias!A5</f>
+        <f>Epicas!A5</f>
         <v>HU4</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="8">
-        <f>C12*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C12*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1166,13 +1266,14 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="8">
-        <f>C13*Historias!$C$26</f>
+        <f>C13*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
+      <c r="E13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1181,73 +1282,80 @@
         <v>1.0</v>
       </c>
       <c r="D14" s="8">
-        <f>C14*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C14*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="8">
-        <f>C15*Historias!$C$26</f>
-        <v>12.8</v>
-      </c>
+        <f>C15*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" s="8">
-        <f>C16*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C16*Epicas!$C$26</f>
+        <v>12.8</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="8">
-        <f>C17*Historias!$C$26</f>
-        <v>12.8</v>
-      </c>
+        <f>C17*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="8">
-        <f>C18*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C18*Epicas!$C$26</f>
+        <v>12.8</v>
+      </c>
+      <c r="E18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -1256,13 +1364,16 @@
         <v>1.0</v>
       </c>
       <c r="D19" s="8">
-        <f>C19*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C19*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1271,13 +1382,14 @@
         <v>1.0</v>
       </c>
       <c r="D20" s="8">
-        <f>C20*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C20*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1286,13 +1398,14 @@
         <v>1.0</v>
       </c>
       <c r="D21" s="8">
-        <f>C21*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C21*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1301,13 +1414,14 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="8">
-        <f>C22*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C22*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1316,13 +1430,14 @@
         <v>1.0</v>
       </c>
       <c r="D23" s="8">
-        <f>C23*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C23*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -1331,13 +1446,16 @@
         <v>1.0</v>
       </c>
       <c r="D24" s="8">
-        <f>C24*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C24*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>14</v>
@@ -1346,13 +1464,14 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="8">
-        <f>C25*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C25*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -1361,13 +1480,14 @@
         <v>1.0</v>
       </c>
       <c r="D26" s="8">
-        <f>C26*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C26*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1376,13 +1496,14 @@
         <v>0.5</v>
       </c>
       <c r="D27" s="8">
-        <f>C27*Historias!$C$26</f>
+        <f>C27*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
+      <c r="E27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -1391,58 +1512,64 @@
         <v>1.0</v>
       </c>
       <c r="D28" s="8">
-        <f>C28*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C28*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="8">
-        <f>C29*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C29*Epicas!$C$26</f>
+        <v>3.2</v>
+      </c>
+      <c r="E29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
       </c>
       <c r="D30" s="8">
-        <f>C30*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C30*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="8">
-        <f>C31*Historias!$C$26</f>
-        <v>3.2</v>
-      </c>
+        <f>C31*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>18</v>
@@ -1451,13 +1578,14 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="8">
-        <f>C32*Historias!$C$26</f>
+        <f>C32*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>18</v>
@@ -1466,13 +1594,14 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="8">
-        <f>C33*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C33*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
@@ -1481,13 +1610,16 @@
         <v>1.5</v>
       </c>
       <c r="D34" s="8">
-        <f>C34*Historias!$C$26</f>
+        <f>C34*Epicas!$C$26</f>
         <v>9.6</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
@@ -1496,13 +1628,14 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="8">
-        <f>C35*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C35*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
@@ -1511,13 +1644,14 @@
         <v>1.0</v>
       </c>
       <c r="D36" s="8">
-        <f>C36*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C36*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
@@ -1526,88 +1660,96 @@
         <v>1.0</v>
       </c>
       <c r="D37" s="8">
-        <f>C37*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C37*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2">
-        <v>2.0</v>
+        <v>0.5</v>
       </c>
       <c r="D38" s="8">
-        <f>C38*Historias!$C$26</f>
-        <v>12.8</v>
-      </c>
+        <f>C38*Epicas!$C$26</f>
+        <v>3.2</v>
+      </c>
+      <c r="E38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="D39" s="8">
-        <f>C39*Historias!$C$26</f>
-        <v>9.6</v>
+        <f>C39*Epicas!$C$26</f>
+        <v>12.8</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="8">
-        <f>C40*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C40*Epicas!$C$26</f>
+        <v>9.6</v>
+      </c>
+      <c r="E40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="8">
-        <f>C41*Historias!$C$26</f>
-        <v>3.2</v>
-      </c>
+        <f>C41*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D42" s="8">
-        <f>C42*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C42*Epicas!$C$26</f>
+        <v>3.2</v>
+      </c>
+      <c r="E42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
@@ -1616,43 +1758,48 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="8">
-        <f>C43*Historias!$C$26</f>
-        <v>6.4</v>
+        <f>C43*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
         <v>1.0</v>
       </c>
       <c r="D44" s="8">
-        <f>C44*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C44*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E44" s="13"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="2">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="D45" s="8">
-        <f>C45*Historias!$C$26</f>
-        <v>3.2</v>
-      </c>
+        <f>C45*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>26</v>
@@ -1661,13 +1808,14 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="8">
-        <f>C46*Historias!$C$26</f>
+        <f>C46*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
+      <c r="E46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>26</v>
@@ -1676,13 +1824,16 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="8">
-        <f>C47*Historias!$C$26</f>
+        <f>C47*Epicas!$C$26</f>
         <v>12.8</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
@@ -1691,13 +1842,14 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="8">
-        <f>C48*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C48*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>27</v>
@@ -1706,13 +1858,14 @@
         <v>1.5</v>
       </c>
       <c r="D49" s="8">
-        <f>C49*Historias!$C$26</f>
+        <f>C49*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
+      <c r="E49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>28</v>
@@ -1721,13 +1874,16 @@
         <v>3.0</v>
       </c>
       <c r="D50" s="8">
-        <f>C50*Historias!$C$26</f>
+        <f>C50*Epicas!$C$26</f>
         <v>19.2</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>28</v>
@@ -1736,13 +1892,14 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="8">
-        <f>C51*Historias!$C$26</f>
+        <f>C51*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
+      <c r="E51" s="14"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
@@ -1751,13 +1908,16 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="8">
-        <f>C52*Historias!$C$26</f>
+        <f>C52*Epicas!$C$26</f>
         <v>12.8</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -1766,18 +1926,34 @@
         <v>1.0</v>
       </c>
       <c r="D53" s="8">
-        <f>C53*Historias!$C$26</f>
-        <v>6.4</v>
-      </c>
+        <f>C53*Epicas!$C$26</f>
+        <v>6.4</v>
+      </c>
+      <c r="E53" s="14"/>
     </row>
     <row r="54">
-      <c r="D54" s="11">
+      <c r="D54" s="15">
         <f>SUM(D2:D53)</f>
         <v>400</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="E30:E33"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
+++ b/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
@@ -386,7 +386,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +421,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,64 +471,68 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,7 +638,7 @@
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFBBC04"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -831,7 +841,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1106,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="2" t="n">
         <f aca="false">SUM(C2:C24)</f>
         <v>62.5</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="2" t="n">
         <f aca="false">C25*C26</f>
         <v>400</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="2" t="n">
         <f aca="false">C27/40</f>
         <v>10</v>
       </c>
@@ -1167,13 +1177,13 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="67.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,18 +1207,18 @@
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <f aca="false">Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="10" t="n">
         <f aca="false">C2*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1216,223 +1226,223 @@
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f aca="false">Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <f aca="false">C3*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <f aca="false">Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="10" t="n">
         <f aca="false">C4*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="10" t="str">
         <f aca="false">Epicas!A2</f>
         <v>HU1</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="10" t="n">
         <f aca="false">C5*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <f aca="false">Epicas!A3</f>
         <v>HU2</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <f aca="false">C6*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <f aca="false">Epicas!A3</f>
         <v>HU2</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="10" t="n">
         <f aca="false">C7*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="12" t="str">
         <f aca="false">Epicas!A4</f>
         <v>HU3</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="n">
         <f aca="false">C8*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="12" t="str">
         <f aca="false">Epicas!A4</f>
         <v>HU3</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="12" t="n">
         <f aca="false">C9*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="2" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="2" t="n">
         <f aca="false">C10*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="12" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="12" t="n">
         <f aca="false">C11*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="12" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="n">
         <f aca="false">C12*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="12" t="n">
         <f aca="false">C13*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
+      <c r="C14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="n">
         <f aca="false">C14*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="n">
         <f aca="false">C15*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -1444,11 +1454,11 @@
       <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="2" t="n">
         <f aca="false">C16*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1462,43 +1472,43 @@
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="2" t="n">
         <f aca="false">C17*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="12" t="n">
         <f aca="false">C18*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="n">
         <f aca="false">C19*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1512,11 +1522,11 @@
       <c r="C20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="2" t="n">
         <f aca="false">C20*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
@@ -1528,43 +1538,43 @@
       <c r="C21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="2" t="n">
         <f aca="false">C21*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="n">
+      <c r="C22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="n">
         <f aca="false">C22*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="n">
+      <c r="C23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12" t="n">
         <f aca="false">C23*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
@@ -1576,11 +1586,11 @@
       <c r="C24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="2" t="n">
         <f aca="false">C24*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1594,43 +1604,43 @@
       <c r="C25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="2" t="n">
         <f aca="false">C25*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="n">
+      <c r="C26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="n">
         <f aca="false">C26*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="12" t="n">
         <f aca="false">C27*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
@@ -1642,159 +1652,159 @@
       <c r="C28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="2" t="n">
         <f aca="false">C28*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="12" t="n">
         <f aca="false">C29*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="n">
+      <c r="C30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="n">
         <f aca="false">C30*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="n">
+      <c r="C31" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12" t="n">
         <f aca="false">C31*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="12" t="n">
         <f aca="false">C32*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="n">
+      <c r="C33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="n">
         <f aca="false">C33*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="12" t="n">
         <f aca="false">C34*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+    <row r="35" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="n">
+      <c r="C35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="n">
         <f aca="false">C35*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="n">
+      <c r="C36" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="n">
         <f aca="false">C36*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="n">
+      <c r="C37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="n">
         <f aca="false">C37*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
@@ -1806,45 +1816,45 @@
       <c r="C38" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="2" t="n">
         <f aca="false">C38*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="12" t="n">
         <f aca="false">C39*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="12" t="n">
         <f aca="false">C40*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -1856,11 +1866,11 @@
       <c r="C41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="2" t="n">
         <f aca="false">C41*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
@@ -1872,11 +1882,11 @@
       <c r="C42" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="2" t="n">
         <f aca="false">C42*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
@@ -1888,11 +1898,11 @@
       <c r="C43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="2" t="n">
         <f aca="false">C43*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1906,27 +1916,27 @@
       <c r="C44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="2" t="n">
         <f aca="false">C44*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7" t="n">
+      <c r="C45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12" t="n">
         <f aca="false">C45*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
@@ -1938,11 +1948,11 @@
       <c r="C46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="2" t="n">
         <f aca="false">C46*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
@@ -1954,11 +1964,11 @@
       <c r="C47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="2" t="n">
         <f aca="false">C47*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1972,11 +1982,11 @@
       <c r="C48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="2" t="n">
         <f aca="false">C48*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
@@ -1988,11 +1998,11 @@
       <c r="C49" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="2" t="n">
         <f aca="false">C49*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -2004,11 +2014,11 @@
       <c r="C50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="2" t="n">
         <f aca="false">C50*Epicas!$C$26</f>
         <v>19.2</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2022,11 +2032,11 @@
       <c r="C51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="2" t="n">
         <f aca="false">C51*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -2038,11 +2048,11 @@
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="2" t="n">
         <f aca="false">C52*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2056,18 +2066,18 @@
       <c r="C53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="2" t="n">
         <f aca="false">C53*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="14" t="n">
         <f aca="false">SUM(D2:D53)</f>
         <v>400</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
+++ b/CRONOGRAMA/Actividades por Historia de Usuario.xlsx
@@ -269,7 +269,7 @@
     <t xml:space="preserve">Diseño de interfaz de login</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseño de interfaz notificaciones</t>
+    <t xml:space="preserve">Implementar sincronización de ajustes del usuario ( idioma, accesibilidad)</t>
   </si>
   <si>
     <t xml:space="preserve">Implementar API perfil de usuario</t>
@@ -281,19 +281,19 @@
     <t xml:space="preserve">Diseño de interfaz perfil de usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar notificaciones push</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de interfaz integración redes sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar recomendaciones personalizadas</t>
+    <t xml:space="preserve">Diseño de interfaz de configuración general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Configuracion de preferencias de usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño Configuracion de preferencias de usuario </t>
   </si>
   <si>
     <t xml:space="preserve">Spring 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseño de interfaz recomendaciones</t>
+    <t xml:space="preserve">Modo oscuro</t>
   </si>
   <si>
     <t xml:space="preserve">Implementar login/redes sociales</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">Spring 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar API itinerarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de interfaz itinerarios</t>
+    <t xml:space="preserve">Api configuracion de voz narrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño configuracion de voz narrador</t>
   </si>
   <si>
     <t xml:space="preserve">Implementar API de contacto con guías turísticos</t>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -385,8 +385,16 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,18 +423,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF158466"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,7 +508,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +516,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,7 +605,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF158466"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -638,7 +634,7 @@
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFBBC04"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1178,12 +1174,12 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="67.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="79.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,85 +1306,85 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="10" t="str">
         <f aca="false">Epicas!A4</f>
         <v>HU3</v>
       </c>
-      <c r="C8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="n">
+      <c r="C8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="n">
         <f aca="false">C8*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="10" t="str">
         <f aca="false">Epicas!A4</f>
         <v>HU3</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="10" t="n">
         <f aca="false">C9*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="10" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="n">
         <f aca="false">C10*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="10" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="10" t="n">
         <f aca="false">C11*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="10" t="str">
         <f aca="false">Epicas!A5</f>
         <v>HU4</v>
       </c>
-      <c r="C12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="n">
+      <c r="C12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="n">
         <f aca="false">C12*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
@@ -1397,64 +1393,64 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="10" t="n">
         <f aca="false">C13*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="n">
+      <c r="C14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
         <f aca="false">C14*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="n">
+      <c r="C15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="n">
         <f aca="false">C15*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="10" t="n">
         <f aca="false">C16*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
@@ -1463,48 +1459,48 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="n">
         <f aca="false">C17*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="10" t="n">
         <f aca="false">C18*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="n">
+      <c r="C19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="n">
         <f aca="false">C19*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
@@ -1513,80 +1509,80 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="n">
         <f aca="false">C20*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="n">
         <f aca="false">C21*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="n">
+      <c r="C22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
         <f aca="false">C22*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="n">
+      <c r="C23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="n">
         <f aca="false">C23*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="n">
         <f aca="false">C24*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
@@ -1595,96 +1591,96 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="C25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="n">
         <f aca="false">C25*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="n">
+      <c r="C26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="n">
         <f aca="false">C26*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="10" t="n">
         <f aca="false">C27*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="n">
         <f aca="false">C28*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="10" t="n">
         <f aca="false">C29*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="n">
+      <c r="C30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="n">
         <f aca="false">C30*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
@@ -1693,64 +1689,64 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12" t="n">
+      <c r="C31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10" t="n">
         <f aca="false">C31*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="12" t="n">
+      <c r="C32" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="10" t="n">
         <f aca="false">C32*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12" t="n">
+      <c r="C33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="n">
         <f aca="false">C33*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="12" t="n">
+      <c r="C34" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="10" t="n">
         <f aca="false">C34*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
@@ -1759,80 +1755,80 @@
       </c>
     </row>
     <row r="35" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="n">
+      <c r="C35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="n">
         <f aca="false">C35*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="n">
+      <c r="C36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="n">
         <f aca="false">C36*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12" t="n">
+      <c r="C37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="n">
         <f aca="false">C37*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="10" t="n">
         <f aca="false">C38*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="10" t="n">
         <f aca="false">C39*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
@@ -1841,64 +1837,64 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="10" t="n">
         <f aca="false">C40*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="n">
+      <c r="C41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="n">
         <f aca="false">C41*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="10" t="n">
         <f aca="false">C42*Epicas!$C$26</f>
         <v>3.2</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="n">
+      <c r="C43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="n">
         <f aca="false">C43*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
@@ -1907,64 +1903,64 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="n">
+      <c r="C44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="n">
         <f aca="false">C44*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12" t="n">
+      <c r="C45" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="n">
         <f aca="false">C45*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="10" t="n">
         <f aca="false">C46*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="10" t="n">
         <f aca="false">C47*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
@@ -1973,48 +1969,48 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="n">
+      <c r="C48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="n">
         <f aca="false">C48*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
       <c r="E48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="10" t="n">
         <f aca="false">C49*Epicas!$C$26</f>
         <v>9.6</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="10" t="n">
         <f aca="false">C50*Epicas!$C$26</f>
         <v>19.2</v>
       </c>
@@ -2023,32 +2019,32 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="10" t="n">
         <f aca="false">C51*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="10" t="n">
         <f aca="false">C52*Epicas!$C$26</f>
         <v>12.8</v>
       </c>
@@ -2057,16 +2053,16 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="n">
+      <c r="C53" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="n">
         <f aca="false">C53*Epicas!$C$26</f>
         <v>6.4</v>
       </c>
